--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Rbp4</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,10 +543,10 @@
         <v>2.104042</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.93806027808652</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.93806027808652</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +561,10 @@
         <v>0.080721</v>
       </c>
       <c r="O2">
-        <v>0.02822345482694817</v>
+        <v>0.01654931057352943</v>
       </c>
       <c r="P2">
-        <v>0.02822345482694817</v>
+        <v>0.01654931057352943</v>
       </c>
       <c r="Q2">
         <v>0.018871152698</v>
@@ -570,10 +573,10 @@
         <v>0.169840374282</v>
       </c>
       <c r="S2">
-        <v>0.02822345482694817</v>
+        <v>0.0155242508787452</v>
       </c>
       <c r="T2">
-        <v>0.02822345482694817</v>
+        <v>0.0155242508787452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +605,10 @@
         <v>2.104042</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.93806027808652</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.93806027808652</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>1.819604</v>
       </c>
       <c r="O3">
-        <v>0.6362100481527012</v>
+        <v>0.3730527584747022</v>
       </c>
       <c r="P3">
-        <v>0.6362100481527012</v>
+        <v>0.3730527584747023</v>
       </c>
       <c r="Q3">
         <v>0.4253914710408888</v>
@@ -632,10 +635,10 @@
         <v>3.828523239367999</v>
       </c>
       <c r="S3">
-        <v>0.6362100481527012</v>
+        <v>0.3499459743557226</v>
       </c>
       <c r="T3">
-        <v>0.6362100481527012</v>
+        <v>0.3499459743557226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,10 +667,10 @@
         <v>2.104042</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.93806027808652</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.93806027808652</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3199143333333334</v>
+        <v>0.9924266666666667</v>
       </c>
       <c r="N4">
-        <v>0.959743</v>
+        <v>2.97728</v>
       </c>
       <c r="O4">
-        <v>0.3355664970203506</v>
+        <v>0.6103979309517683</v>
       </c>
       <c r="P4">
-        <v>0.3355664970203506</v>
+        <v>0.6103979309517683</v>
       </c>
       <c r="Q4">
-        <v>0.2243710645784444</v>
+        <v>0.6960357961955554</v>
       </c>
       <c r="R4">
-        <v>2.019339581206</v>
+        <v>6.264322165759999</v>
       </c>
       <c r="S4">
-        <v>0.3355664970203506</v>
+        <v>0.5725900528520522</v>
       </c>
       <c r="T4">
-        <v>0.3355664970203506</v>
+        <v>0.5725900528520522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.04630966666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.138929</v>
+      </c>
+      <c r="I5">
+        <v>0.06193972191347994</v>
+      </c>
+      <c r="J5">
+        <v>0.06193972191347993</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.026907</v>
+      </c>
+      <c r="N5">
+        <v>0.080721</v>
+      </c>
+      <c r="O5">
+        <v>0.01654931057352943</v>
+      </c>
+      <c r="P5">
+        <v>0.01654931057352943</v>
+      </c>
+      <c r="Q5">
+        <v>0.001246054201</v>
+      </c>
+      <c r="R5">
+        <v>0.011214487809</v>
+      </c>
+      <c r="S5">
+        <v>0.001025059694784226</v>
+      </c>
+      <c r="T5">
+        <v>0.001025059694784226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.04630966666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.138929</v>
+      </c>
+      <c r="I6">
+        <v>0.06193972191347994</v>
+      </c>
+      <c r="J6">
+        <v>0.06193972191347993</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6065346666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.819604</v>
+      </c>
+      <c r="O6">
+        <v>0.3730527584747022</v>
+      </c>
+      <c r="P6">
+        <v>0.3730527584747023</v>
+      </c>
+      <c r="Q6">
+        <v>0.02808841823511111</v>
+      </c>
+      <c r="R6">
+        <v>0.252795764116</v>
+      </c>
+      <c r="S6">
+        <v>0.02310678411897965</v>
+      </c>
+      <c r="T6">
+        <v>0.02310678411897965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04630966666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.138929</v>
+      </c>
+      <c r="I7">
+        <v>0.06193972191347994</v>
+      </c>
+      <c r="J7">
+        <v>0.06193972191347993</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9924266666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.97728</v>
+      </c>
+      <c r="O7">
+        <v>0.6103979309517683</v>
+      </c>
+      <c r="P7">
+        <v>0.6103979309517683</v>
+      </c>
+      <c r="Q7">
+        <v>0.04595894812444445</v>
+      </c>
+      <c r="R7">
+        <v>0.41363053312</v>
+      </c>
+      <c r="S7">
+        <v>0.03780787809971606</v>
+      </c>
+      <c r="T7">
+        <v>0.03780787809971606</v>
       </c>
     </row>
   </sheetData>
